--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/ValueSet/family-type-vs</t>
+    <t>https://fhir.cqdg.ca/ValueSet/family-type-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/CodeSystem/family-type</t>
+    <t>https://fhir.cqdg.ca/CodeSystem/family-type</t>
   </si>
 </sst>
 </file>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:10:49+00:00</t>
+    <t>2023-05-08T15:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T15:26:10+00:00</t>
+    <t>2023-05-11T13:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T13:00:33+00:00</t>
+    <t>2023-05-11T21:57:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T21:57:42+00:00</t>
+    <t>2023-05-12T12:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-12T12:33:13+00:00</t>
+    <t>2023-08-01T16:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T16:12:28+00:00</t>
+    <t>2023-10-16T18:33:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T18:33:36+00:00</t>
+    <t>2023-11-09T20:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:06:51+00:00</t>
+    <t>2023-11-15T18:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T18:25:48+00:00</t>
+    <t>2023-11-15T19:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T19:01:06+00:00</t>
+    <t>2023-12-04T14:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T14:59:45+00:00</t>
+    <t>2023-12-07T15:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:05:41+00:00</t>
+    <t>2024-01-17T15:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T15:25:58+00:00</t>
+    <t>2024-01-17T16:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:00:29+00:00</t>
+    <t>2024-01-17T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:27:10+00:00</t>
+    <t>2024-01-17T16:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Ferlab.bio CodeS" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:37:11+00:00</t>
+    <t>2024-10-02T15:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Ferlab.bio (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -94,9 +100,6 @@
   </si>
   <si>
     <t>All codes</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -236,7 +239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -336,20 +339,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -371,28 +382,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T15:04:17+00:00</t>
+    <t>2024-12-18T18:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:27:33+00:00</t>
+    <t>2025-05-13T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-family-type-vs.xlsx
+++ b/docs/ValueSet-family-type-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
